--- a/recommended trades.xlsx
+++ b/recommended trades.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E185B3C-0131-45F8-A913-33B334856B68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommended Trades" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="509">
   <si>
     <t>Ticker</t>
   </si>
@@ -1546,11 +1552,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$0.00"/>
+    <numFmt numFmtId="164" formatCode="\$0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1618,6 +1624,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1664,7 +1678,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1696,9 +1710,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1730,6 +1762,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1905,20 +1955,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1946,7 +1997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +2011,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1974,7 +2025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1988,7 +2039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2002,7 +2053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2016,7 +2067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2030,7 +2081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2044,12 +2095,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>265.53</v>
+        <v>265.52999999999997</v>
       </c>
       <c r="C10" s="2">
         <v>170002702174</v>
@@ -2058,7 +2109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2072,7 +2123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2086,7 +2137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2100,7 +2151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2114,7 +2165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2128,12 +2179,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>74.65000000000001</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="C16" s="2">
         <v>18100394459</v>
@@ -2142,12 +2193,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>84.90000000000001</v>
+        <v>84.9</v>
       </c>
       <c r="C17" s="2">
         <v>42141244238</v>
@@ -2156,7 +2207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2170,7 +2221,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2184,7 +2235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2198,7 +2249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2212,7 +2263,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2226,7 +2277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2240,7 +2291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -2254,7 +2305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2268,7 +2319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2282,7 +2333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2296,7 +2347,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2310,7 +2361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2324,12 +2375,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>162.61</v>
+        <v>162.61000000000001</v>
       </c>
       <c r="C30" s="2">
         <v>36003395194</v>
@@ -2338,7 +2389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2352,7 +2403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2366,7 +2417,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2380,7 +2431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -2394,7 +2445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -2408,7 +2459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -2422,7 +2473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -2436,7 +2487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2450,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2464,7 +2515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2478,12 +2529,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>323.65</v>
+        <v>323.64999999999998</v>
       </c>
       <c r="C41" s="2">
         <v>78839330184</v>
@@ -2492,7 +2543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -2506,7 +2557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -2520,7 +2571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,12 +2585,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>290.4</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="C45" s="2">
         <v>64641039430</v>
@@ -2548,12 +2599,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>138.02</v>
+        <v>138.02000000000001</v>
       </c>
       <c r="C46" s="2">
         <v>40676561720</v>
@@ -2562,7 +2613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -2576,7 +2627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -2590,12 +2641,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>91.34999999999999</v>
+        <v>91.35</v>
       </c>
       <c r="C49" s="2">
         <v>11559858994</v>
@@ -2604,12 +2655,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>95.56999999999999</v>
+        <v>95.57</v>
       </c>
       <c r="C50" s="2">
         <v>74366476143</v>
@@ -2618,7 +2669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -2632,7 +2683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -2646,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -2660,7 +2711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -2674,12 +2725,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>132.02</v>
+        <v>132.02000000000001</v>
       </c>
       <c r="C55" s="2">
         <v>106210282490</v>
@@ -2688,7 +2739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -2702,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -2716,7 +2767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -2730,7 +2781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -2744,7 +2795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -2758,7 +2809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -2772,7 +2823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -2786,7 +2837,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,12 +2851,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>278.79</v>
+        <v>278.79000000000002</v>
       </c>
       <c r="C64" s="2">
         <v>41748413796</v>
@@ -2814,7 +2865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -2828,7 +2879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -2842,12 +2893,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>2132.82</v>
+        <v>2132.8200000000002</v>
       </c>
       <c r="C67" s="2">
         <v>87556759328</v>
@@ -2856,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2870,7 +2921,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -2884,7 +2935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -2898,12 +2949,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>66.68000000000001</v>
+        <v>66.680000000000007</v>
       </c>
       <c r="C71" s="2">
         <v>150660803253</v>
@@ -2912,7 +2963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,7 +2977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -2940,7 +2991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -2954,7 +3005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -2968,12 +3019,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="C76" s="2">
         <v>14805323114</v>
@@ -2982,7 +3033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -2996,7 +3047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -3010,7 +3061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -3024,7 +3075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -3038,7 +3089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
@@ -3052,12 +3103,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>159.98</v>
+        <v>159.97999999999999</v>
       </c>
       <c r="C82" s="2">
         <v>70901373953</v>
@@ -3066,12 +3117,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>96.40000000000001</v>
+        <v>96.4</v>
       </c>
       <c r="C83" s="2">
         <v>10358337476</v>
@@ -3080,12 +3131,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>68.54000000000001</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="C84" s="2">
         <v>22539038592</v>
@@ -3094,7 +3145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
@@ -3108,7 +3159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
@@ -3122,7 +3173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
@@ -3136,7 +3187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,7 +3201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -3164,7 +3215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -3178,7 +3229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -3192,7 +3243,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -3206,7 +3257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -3220,7 +3271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -3234,7 +3285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
@@ -3248,7 +3299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
@@ -3262,12 +3313,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>88.84999999999999</v>
+        <v>88.85</v>
       </c>
       <c r="C97" s="2">
         <v>14585762206</v>
@@ -3276,7 +3327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
@@ -3290,7 +3341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
@@ -3304,7 +3355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
@@ -3318,7 +3369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
@@ -3332,7 +3383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
@@ -3346,7 +3397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -3360,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -3374,7 +3425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
@@ -3388,7 +3439,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
@@ -3402,7 +3453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
@@ -3416,7 +3467,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
@@ -3430,7 +3481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
@@ -3444,7 +3495,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
@@ -3458,7 +3509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
@@ -3472,7 +3523,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
@@ -3486,7 +3537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
@@ -3500,7 +3551,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
@@ -3514,7 +3565,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
@@ -3528,7 +3579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
@@ -3542,7 +3593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
@@ -3556,7 +3607,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
@@ -3570,7 +3621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
@@ -3584,7 +3635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
@@ -3598,7 +3649,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -3612,7 +3663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
@@ -3626,12 +3677,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>132.11</v>
+        <v>132.11000000000001</v>
       </c>
       <c r="C123" s="2">
         <v>15910179527</v>
@@ -3640,7 +3691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
@@ -3654,12 +3705,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>92.79000000000001</v>
+        <v>92.79</v>
       </c>
       <c r="C125" s="2">
         <v>173170482601</v>
@@ -3668,7 +3719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -3682,7 +3733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -3696,7 +3747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
@@ -3710,7 +3761,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -3724,7 +3775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
@@ -3738,12 +3789,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>96.09999999999999</v>
+        <v>96.1</v>
       </c>
       <c r="C131" s="2">
         <v>28391125809</v>
@@ -3752,7 +3803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
@@ -3766,7 +3817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
@@ -3780,12 +3831,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>80.34999999999999</v>
+        <v>80.349999999999994</v>
       </c>
       <c r="C134" s="2">
         <v>28347959687</v>
@@ -3794,7 +3845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
@@ -3808,7 +3859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
@@ -3822,7 +3873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
@@ -3836,12 +3887,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>34.34</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="C138" s="2">
         <v>17451310847</v>
@@ -3850,7 +3901,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -3864,7 +3915,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -3878,7 +3929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -3892,7 +3943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
@@ -3906,7 +3957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
@@ -3920,7 +3971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
@@ -3934,7 +3985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
@@ -3948,7 +3999,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
@@ -3962,7 +4013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
@@ -3976,12 +4027,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>93.45999999999999</v>
+        <v>93.46</v>
       </c>
       <c r="C148" s="2">
         <v>68159310247</v>
@@ -3990,7 +4041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
@@ -4004,7 +4055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
@@ -4018,7 +4069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
@@ -4032,7 +4083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
@@ -4046,7 +4097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
@@ -4060,7 +4111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
@@ -4074,7 +4125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
@@ -4088,12 +4139,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>68.98999999999999</v>
+        <v>68.989999999999995</v>
       </c>
       <c r="C156" s="2">
         <v>23627075689</v>
@@ -4102,7 +4153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>159</v>
       </c>
@@ -4116,7 +4167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
@@ -4130,7 +4181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -4144,7 +4195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>162</v>
       </c>
@@ -4158,7 +4209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -4172,7 +4223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
@@ -4186,7 +4237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
@@ -4200,7 +4251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
@@ -4214,7 +4265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
@@ -4228,7 +4279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
@@ -4242,7 +4293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
@@ -4256,7 +4307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
@@ -4270,7 +4321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
@@ -4284,7 +4335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
@@ -4298,7 +4349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
@@ -4312,7 +4363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
@@ -4326,7 +4377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
@@ -4340,12 +4391,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>141.61</v>
+        <v>141.61000000000001</v>
       </c>
       <c r="C174" s="2">
         <v>19406584463</v>
@@ -4354,7 +4405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
@@ -4368,7 +4419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
@@ -4382,7 +4433,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
@@ -4396,7 +4447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
@@ -4410,7 +4461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
@@ -4424,7 +4475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
@@ -4438,7 +4489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
@@ -4452,7 +4503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -4466,7 +4517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
@@ -4480,7 +4531,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
@@ -4494,12 +4545,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>129.52</v>
+        <v>129.52000000000001</v>
       </c>
       <c r="C185" s="2">
         <v>84052441286</v>
@@ -4508,7 +4559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
@@ -4522,7 +4573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
@@ -4536,7 +4587,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
@@ -4550,12 +4601,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>39.63</v>
+        <v>39.630000000000003</v>
       </c>
       <c r="C189" s="2">
         <v>5026426018</v>
@@ -4564,7 +4615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
@@ -4578,7 +4629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
@@ -4592,7 +4643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
@@ -4606,7 +4657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
@@ -4620,12 +4671,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>158.58</v>
+        <v>158.58000000000001</v>
       </c>
       <c r="C194" s="2">
         <v>27870984980</v>
@@ -4634,7 +4685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
@@ -4648,7 +4699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
@@ -4662,7 +4713,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
@@ -4676,12 +4727,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>69.48999999999999</v>
+        <v>69.489999999999995</v>
       </c>
       <c r="C198" s="2">
         <v>24060323956</v>
@@ -4690,7 +4741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
@@ -4704,7 +4755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
@@ -4718,7 +4769,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
@@ -4732,7 +4783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>204</v>
       </c>
@@ -4746,7 +4797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>205</v>
       </c>
@@ -4760,7 +4811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>206</v>
       </c>
@@ -4774,7 +4825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>207</v>
       </c>
@@ -4788,7 +4839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>208</v>
       </c>
@@ -4802,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>209</v>
       </c>
@@ -4816,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>210</v>
       </c>
@@ -4830,7 +4881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
@@ -4844,7 +4895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
@@ -4858,7 +4909,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
@@ -4872,12 +4923,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>294.53</v>
+        <v>294.52999999999997</v>
       </c>
       <c r="C212" s="2">
         <v>104328205091</v>
@@ -4886,7 +4937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>215</v>
       </c>
@@ -4900,7 +4951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
@@ -4914,7 +4965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
@@ -4928,7 +4979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
@@ -4942,12 +4993,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="C217" s="2">
         <v>5631540873</v>
@@ -4956,7 +5007,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
@@ -4970,7 +5021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
@@ -4984,7 +5035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
@@ -4998,7 +5049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
@@ -5012,7 +5063,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>224</v>
       </c>
@@ -5026,7 +5077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>225</v>
       </c>
@@ -5040,7 +5091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>226</v>
       </c>
@@ -5054,7 +5105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>227</v>
       </c>
@@ -5068,7 +5119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>228</v>
       </c>
@@ -5082,7 +5133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>229</v>
       </c>
@@ -5096,7 +5147,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
@@ -5110,7 +5161,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
@@ -5124,7 +5175,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
@@ -5138,7 +5189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
@@ -5152,7 +5203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
@@ -5166,7 +5217,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
@@ -5180,7 +5231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
@@ -5194,7 +5245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
@@ -5208,7 +5259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
@@ -5222,7 +5273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
@@ -5236,7 +5287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
@@ -5250,7 +5301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
@@ -5264,7 +5315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
@@ -5278,7 +5329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
@@ -5292,7 +5343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
@@ -5306,7 +5357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
@@ -5320,7 +5371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
@@ -5334,7 +5385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
@@ -5348,7 +5399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
@@ -5362,7 +5413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
@@ -5376,7 +5427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
@@ -5390,7 +5441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
@@ -5404,7 +5455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
@@ -5418,7 +5469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
@@ -5432,7 +5483,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
@@ -5446,12 +5497,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>163.58</v>
+        <v>163.58000000000001</v>
       </c>
       <c r="C253" s="2">
         <v>15021390815</v>
@@ -5460,7 +5511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
@@ -5474,7 +5525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
@@ -5488,7 +5539,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
@@ -5502,7 +5553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>259</v>
       </c>
@@ -5516,7 +5567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>260</v>
       </c>
@@ -5530,7 +5581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>261</v>
       </c>
@@ -5544,7 +5595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>262</v>
       </c>
@@ -5558,7 +5609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>263</v>
       </c>
@@ -5572,7 +5623,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>264</v>
       </c>
@@ -5586,7 +5637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>265</v>
       </c>
@@ -5600,7 +5651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>266</v>
       </c>
@@ -5614,7 +5665,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
@@ -5628,12 +5679,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>34.48</v>
+        <v>34.479999999999997</v>
       </c>
       <c r="C266" s="2">
         <v>41488720136</v>
@@ -5642,12 +5693,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>17.31</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="C267" s="2">
         <v>7247385298</v>
@@ -5656,12 +5707,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>309.46</v>
+        <v>309.45999999999998</v>
       </c>
       <c r="C268" s="2">
         <v>47292814707</v>
@@ -5670,7 +5721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>271</v>
       </c>
@@ -5684,7 +5735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>272</v>
       </c>
@@ -5698,7 +5749,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>273</v>
       </c>
@@ -5712,7 +5763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>274</v>
       </c>
@@ -5726,7 +5777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>275</v>
       </c>
@@ -5740,7 +5791,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>276</v>
       </c>
@@ -5754,7 +5805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>277</v>
       </c>
@@ -5768,7 +5819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>278</v>
       </c>
@@ -5782,7 +5833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>279</v>
       </c>
@@ -5796,7 +5847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>280</v>
       </c>
@@ -5810,7 +5861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>281</v>
       </c>
@@ -5824,7 +5875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>282</v>
       </c>
@@ -5838,7 +5889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>283</v>
       </c>
@@ -5852,7 +5903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>284</v>
       </c>
@@ -5866,7 +5917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>285</v>
       </c>
@@ -5880,7 +5931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>286</v>
       </c>
@@ -5894,7 +5945,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>287</v>
       </c>
@@ -5908,7 +5959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>288</v>
       </c>
@@ -5922,7 +5973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>289</v>
       </c>
@@ -5936,7 +5987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>290</v>
       </c>
@@ -5950,7 +6001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>291</v>
       </c>
@@ -5964,7 +6015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>292</v>
       </c>
@@ -5978,7 +6029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>293</v>
       </c>
@@ -5992,7 +6043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>294</v>
       </c>
@@ -6006,7 +6057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>295</v>
       </c>
@@ -6020,7 +6071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>296</v>
       </c>
@@ -6034,12 +6085,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>74.18000000000001</v>
+        <v>74.180000000000007</v>
       </c>
       <c r="C295" s="2">
         <v>16430257640</v>
@@ -6048,7 +6099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>298</v>
       </c>
@@ -6062,12 +6113,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>135.92</v>
+        <v>135.91999999999999</v>
       </c>
       <c r="C297" s="2">
         <v>15575624021</v>
@@ -6076,7 +6127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>300</v>
       </c>
@@ -6090,7 +6141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>301</v>
       </c>
@@ -6104,7 +6155,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>302</v>
       </c>
@@ -6118,7 +6169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>303</v>
       </c>
@@ -6132,7 +6183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>304</v>
       </c>
@@ -6146,12 +6197,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>275.1</v>
+        <v>275.10000000000002</v>
       </c>
       <c r="C303" s="2">
         <v>51709932452</v>
@@ -6160,7 +6211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>306</v>
       </c>
@@ -6174,7 +6225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>307</v>
       </c>
@@ -6188,7 +6239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>308</v>
       </c>
@@ -6202,7 +6253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>309</v>
       </c>
@@ -6216,7 +6267,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>310</v>
       </c>
@@ -6230,7 +6281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>311</v>
       </c>
@@ -6244,12 +6295,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>518.7</v>
+        <v>518.70000000000005</v>
       </c>
       <c r="C310" s="2">
         <v>19868243354</v>
@@ -6258,7 +6309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>313</v>
       </c>
@@ -6272,7 +6323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>314</v>
       </c>
@@ -6286,7 +6337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>315</v>
       </c>
@@ -6300,7 +6351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>316</v>
       </c>
@@ -6314,7 +6365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>317</v>
       </c>
@@ -6328,7 +6379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>318</v>
       </c>
@@ -6342,7 +6393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>319</v>
       </c>
@@ -6356,7 +6407,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>320</v>
       </c>
@@ -6370,12 +6421,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>8.550000000000001</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="C319" s="2">
         <v>6603672506</v>
@@ -6384,7 +6435,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>322</v>
       </c>
@@ -6398,7 +6449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>323</v>
       </c>
@@ -6412,7 +6463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>324</v>
       </c>
@@ -6426,7 +6477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>325</v>
       </c>
@@ -6440,7 +6491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>326</v>
       </c>
@@ -6454,7 +6505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>327</v>
       </c>
@@ -6468,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>328</v>
       </c>
@@ -6482,7 +6533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>329</v>
       </c>
@@ -6496,12 +6547,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>16.51</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="C328" s="2">
         <v>8923646163</v>
@@ -6510,7 +6561,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>331</v>
       </c>
@@ -6524,7 +6575,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>332</v>
       </c>
@@ -6538,12 +6589,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>142.83</v>
+        <v>142.83000000000001</v>
       </c>
       <c r="C331" s="2">
         <v>23068756188</v>
@@ -6552,7 +6603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>334</v>
       </c>
@@ -6566,7 +6617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>335</v>
       </c>
@@ -6580,7 +6631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>336</v>
       </c>
@@ -6594,7 +6645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>337</v>
       </c>
@@ -6608,7 +6659,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>338</v>
       </c>
@@ -6622,7 +6673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>339</v>
       </c>
@@ -6636,7 +6687,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>340</v>
       </c>
@@ -6650,7 +6701,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>341</v>
       </c>
@@ -6664,7 +6715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>342</v>
       </c>
@@ -6678,7 +6729,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>343</v>
       </c>
@@ -6692,7 +6743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>344</v>
       </c>
@@ -6706,7 +6757,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>345</v>
       </c>
@@ -6720,7 +6771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>346</v>
       </c>
@@ -6734,7 +6785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>347</v>
       </c>
@@ -6748,7 +6799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>348</v>
       </c>
@@ -6762,12 +6813,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>565.8</v>
+        <v>565.79999999999995</v>
       </c>
       <c r="C347" s="2">
         <v>353000002139</v>
@@ -6776,7 +6827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>350</v>
       </c>
@@ -6790,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>351</v>
       </c>
@@ -6804,7 +6855,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>352</v>
       </c>
@@ -6818,7 +6869,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>353</v>
       </c>
@@ -6832,7 +6883,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>354</v>
       </c>
@@ -6846,7 +6897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>355</v>
       </c>
@@ -6860,7 +6911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>356</v>
       </c>
@@ -6874,7 +6925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>357</v>
       </c>
@@ -6888,7 +6939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>358</v>
       </c>
@@ -6902,7 +6953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>359</v>
       </c>
@@ -6916,7 +6967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>360</v>
       </c>
@@ -6930,7 +6981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>361</v>
       </c>
@@ -6944,7 +6995,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>362</v>
       </c>
@@ -6958,12 +7009,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>88.76000000000001</v>
+        <v>88.76</v>
       </c>
       <c r="C361" s="2">
         <v>32291054916</v>
@@ -6972,7 +7023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>364</v>
       </c>
@@ -6986,7 +7037,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>365</v>
       </c>
@@ -7000,7 +7051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>366</v>
       </c>
@@ -7014,7 +7065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>367</v>
       </c>
@@ -7028,7 +7079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>368</v>
       </c>
@@ -7042,7 +7093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>369</v>
       </c>
@@ -7056,7 +7107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>370</v>
       </c>
@@ -7070,7 +7121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>371</v>
       </c>
@@ -7084,7 +7135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>372</v>
       </c>
@@ -7098,7 +7149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>373</v>
       </c>
@@ -7112,7 +7163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>374</v>
       </c>
@@ -7126,12 +7177,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="C373" s="2">
         <v>13557771926</v>
@@ -7140,12 +7191,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>155.92</v>
+        <v>155.91999999999999</v>
       </c>
       <c r="C374" s="2">
         <v>17178557436</v>
@@ -7154,7 +7205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>377</v>
       </c>
@@ -7168,7 +7219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>378</v>
       </c>
@@ -7182,7 +7233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>379</v>
       </c>
@@ -7196,7 +7247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>380</v>
       </c>
@@ -7210,7 +7261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>381</v>
       </c>
@@ -7224,7 +7275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>382</v>
       </c>
@@ -7238,7 +7289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>383</v>
       </c>
@@ -7252,7 +7303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>384</v>
       </c>
@@ -7266,12 +7317,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>86.15000000000001</v>
+        <v>86.15</v>
       </c>
       <c r="C383" s="2">
         <v>33431356095</v>
@@ -7280,7 +7331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>386</v>
       </c>
@@ -7294,7 +7345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>387</v>
       </c>
@@ -7308,7 +7359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>388</v>
       </c>
@@ -7322,7 +7373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>389</v>
       </c>
@@ -7336,7 +7387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>390</v>
       </c>
@@ -7350,7 +7401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>391</v>
       </c>
@@ -7364,7 +7415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>392</v>
       </c>
@@ -7378,7 +7429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>393</v>
       </c>
@@ -7392,7 +7443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>394</v>
       </c>
@@ -7406,7 +7457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>395</v>
       </c>
@@ -7420,7 +7471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>396</v>
       </c>
@@ -7434,7 +7485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>397</v>
       </c>
@@ -7448,7 +7499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>398</v>
       </c>
@@ -7462,7 +7513,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>399</v>
       </c>
@@ -7476,7 +7527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>400</v>
       </c>
@@ -7490,7 +7541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>401</v>
       </c>
@@ -7504,7 +7555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>402</v>
       </c>
@@ -7518,7 +7569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>403</v>
       </c>
@@ -7532,12 +7583,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>37.12</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="C402" s="2">
         <v>18614391011</v>
@@ -7546,7 +7597,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>405</v>
       </c>
@@ -7560,7 +7611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>406</v>
       </c>
@@ -7574,7 +7625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>407</v>
       </c>
@@ -7588,12 +7639,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>70.93000000000001</v>
+        <v>70.930000000000007</v>
       </c>
       <c r="C406" s="2">
         <v>106874528427</v>
@@ -7602,7 +7653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>409</v>
       </c>
@@ -7616,7 +7667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>410</v>
       </c>
@@ -7630,7 +7681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>411</v>
       </c>
@@ -7644,7 +7695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>412</v>
       </c>
@@ -7658,7 +7709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>413</v>
       </c>
@@ -7672,7 +7723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>414</v>
       </c>
@@ -7686,7 +7737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>415</v>
       </c>
@@ -7700,7 +7751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>416</v>
       </c>
@@ -7714,12 +7765,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>64.54000000000001</v>
+        <v>64.540000000000006</v>
       </c>
       <c r="C415" s="2">
         <v>4663364180</v>
@@ -7728,7 +7779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>418</v>
       </c>
@@ -7742,7 +7793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>419</v>
       </c>
@@ -7756,7 +7807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>420</v>
       </c>
@@ -7770,12 +7821,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>97.76000000000001</v>
+        <v>97.76</v>
       </c>
       <c r="C419" s="2">
         <v>31983900395</v>
@@ -7784,7 +7835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>422</v>
       </c>
@@ -7798,7 +7849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>423</v>
       </c>
@@ -7812,7 +7863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>424</v>
       </c>
@@ -7826,7 +7877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>425</v>
       </c>
@@ -7840,7 +7891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>426</v>
       </c>
@@ -7854,7 +7905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>427</v>
       </c>
@@ -7868,7 +7919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>428</v>
       </c>
@@ -7882,7 +7933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>429</v>
       </c>
@@ -7896,7 +7947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>430</v>
       </c>
@@ -7910,7 +7961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>431</v>
       </c>
@@ -7924,7 +7975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>432</v>
       </c>
@@ -7938,7 +7989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>433</v>
       </c>
@@ -7952,7 +8003,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>434</v>
       </c>
@@ -7966,12 +8017,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>599.8</v>
+        <v>599.79999999999995</v>
       </c>
       <c r="C433" s="2">
         <v>32260828808</v>
@@ -7980,7 +8031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>436</v>
       </c>
@@ -7994,7 +8045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>437</v>
       </c>
@@ -8008,7 +8059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>438</v>
       </c>
@@ -8022,7 +8073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>439</v>
       </c>
@@ -8036,7 +8087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>440</v>
       </c>
@@ -8050,12 +8101,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>135.45</v>
+        <v>135.44999999999999</v>
       </c>
       <c r="C439" s="2">
         <v>16513869481</v>
@@ -8064,7 +8115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>442</v>
       </c>
@@ -8078,7 +8129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>443</v>
       </c>
@@ -8092,12 +8143,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>134.58</v>
+        <v>134.58000000000001</v>
       </c>
       <c r="C442" s="2">
         <v>165020730623</v>
@@ -8106,7 +8157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>445</v>
       </c>
@@ -8120,7 +8171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>446</v>
       </c>
@@ -8134,7 +8185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>447</v>
       </c>
@@ -8148,7 +8199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>448</v>
       </c>
@@ -8162,7 +8213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>449</v>
       </c>
@@ -8176,7 +8227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>450</v>
       </c>
@@ -8190,7 +8241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>451</v>
       </c>
@@ -8204,7 +8255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>452</v>
       </c>
@@ -8218,7 +8269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>453</v>
       </c>
@@ -8232,7 +8283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>454</v>
       </c>
@@ -8246,7 +8297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>455</v>
       </c>
@@ -8260,7 +8311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>456</v>
       </c>
@@ -8274,7 +8325,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>457</v>
       </c>
@@ -8288,7 +8339,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>458</v>
       </c>
@@ -8302,7 +8353,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>459</v>
       </c>
@@ -8316,7 +8367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>460</v>
       </c>
@@ -8330,12 +8381,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>301.21</v>
+        <v>301.20999999999998</v>
       </c>
       <c r="C459" s="2">
         <v>17640392707</v>
@@ -8344,7 +8395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>462</v>
       </c>
@@ -8358,7 +8409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>463</v>
       </c>
@@ -8372,7 +8423,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>464</v>
       </c>
@@ -8386,7 +8437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>465</v>
       </c>
@@ -8400,7 +8451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>466</v>
       </c>
@@ -8414,7 +8465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>467</v>
       </c>
@@ -8428,7 +8479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>468</v>
       </c>
@@ -8442,7 +8493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>469</v>
       </c>
@@ -8456,7 +8507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>470</v>
       </c>
@@ -8470,7 +8521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>471</v>
       </c>
@@ -8484,7 +8535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>472</v>
       </c>
@@ -8498,12 +8549,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>161.2</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="C471" s="2">
         <v>21826130457</v>
@@ -8512,7 +8563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>474</v>
       </c>
@@ -8526,7 +8577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>475</v>
       </c>
@@ -8540,7 +8591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>476</v>
       </c>
@@ -8554,7 +8605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>477</v>
       </c>
@@ -8568,7 +8619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>478</v>
       </c>
@@ -8582,7 +8633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>479</v>
       </c>
@@ -8596,7 +8647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>480</v>
       </c>
@@ -8610,12 +8661,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>279.72</v>
+        <v>279.72000000000003</v>
       </c>
       <c r="C479" s="2">
         <v>17746150882</v>
@@ -8624,7 +8675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>482</v>
       </c>
@@ -8638,7 +8689,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>483</v>
       </c>
@@ -8652,7 +8703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>484</v>
       </c>
@@ -8666,7 +8717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>485</v>
       </c>
@@ -8680,7 +8731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>486</v>
       </c>
@@ -8694,7 +8745,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>487</v>
       </c>
@@ -8708,7 +8759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>488</v>
       </c>
@@ -8722,7 +8773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>489</v>
       </c>
@@ -8736,7 +8787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>490</v>
       </c>
@@ -8750,12 +8801,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>150.77</v>
+        <v>150.77000000000001</v>
       </c>
       <c r="C489" s="2">
         <v>427855121462</v>
@@ -8764,7 +8815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>492</v>
       </c>
@@ -8778,7 +8829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>493</v>
       </c>
@@ -8792,12 +8843,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>308.96</v>
+        <v>308.95999999999998</v>
       </c>
       <c r="C492" s="2">
         <v>22412564269</v>
@@ -8806,7 +8857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>495</v>
       </c>
@@ -8820,12 +8871,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>34.41</v>
+        <v>34.409999999999997</v>
       </c>
       <c r="C494" s="2">
         <v>25641072401</v>
@@ -8834,7 +8885,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>497</v>
       </c>
@@ -8848,12 +8899,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>66.31999999999999</v>
+        <v>66.319999999999993</v>
       </c>
       <c r="C496" s="2">
         <v>35637716179</v>
@@ -8862,12 +8913,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>143.2</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="C497" s="2">
         <v>36133780805</v>
@@ -8876,7 +8927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>500</v>
       </c>
@@ -8890,7 +8941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>501</v>
       </c>
@@ -8904,7 +8955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>502</v>
       </c>
@@ -8918,7 +8969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>503</v>
       </c>
@@ -8932,7 +8983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>504</v>
       </c>
@@ -8946,7 +8997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>505</v>
       </c>
@@ -8960,7 +9011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>506</v>
       </c>
@@ -8974,7 +9025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>507</v>
       </c>
@@ -8988,7 +9039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>508</v>
       </c>
